--- a/Lech/RData/ToDos.xlsx
+++ b/Lech/RData/ToDos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">Who</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Header, xaxis, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Boxplots pinage über vit</t>
@@ -115,6 +118,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -185,12 +189,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -200,18 +204,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:E12"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -312,27 +316,36 @@
       <c r="F8" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G8" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,10 +353,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,10 +367,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Lech/RData/ToDos.xlsx
+++ b/Lech/RData/ToDos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t xml:space="preserve">Who</t>
   </si>
@@ -82,28 +82,40 @@
     <t xml:space="preserve">Header, xaxis, </t>
   </si>
   <si>
+    <t xml:space="preserve">VitStad-Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxplots pinage über vit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist Flussabstand nach vit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axenbeschriftung, Head, farben, xaxis(120 bis 350),  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flussabstand [m] Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrplott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnt_vit, dgm, age_pin, dist, morph_dyn, veg_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachbarschaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vit name, eigene vit, nachbar vit, + oder *</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">Boxplots pinage über vit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hist Flussabstand nach vit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axenbeschriftung, Head, farben, xaxis(120 bis 350),  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrplott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pnt_vit, dgm, age_pin, dist, morph_dyn, veg_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachbarschaft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vit name, eigene vit, nachbar vit, + oder *</t>
+    <t xml:space="preserve">++++++++++++++</t>
   </si>
 </sst>
 </file>
@@ -189,12 +201,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -204,15 +216,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.93"/>
@@ -345,7 +357,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,13 +365,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,13 +379,18 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
